--- a/DOC/単体テスト/EMSM_単体テスト仕様書_社員情報リスト.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書_社員情報リスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D227A0D-F57F-4473-936B-D0E990BE2AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1575,38 +1575,39 @@
     <t>No2.社員リスト</t>
   </si>
   <si>
-    <t xml:space="preserve">①社員氏名が表示される
+    <t xml:space="preserve">「テストデータ」の社員氏名が表示される
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「テストデータ」の社員氏名が表示される
+    <t xml:space="preserve">「テストデータ」シートの②社員氏名が表示される
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「テストデータ」シートの②社員氏名が表示される
+    <t xml:space="preserve">「テストデータ」シートのNo2.社員リスト社員氏名が表示される
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「テストデータ」シートのNo2.社員リスト社員氏名が表示される
+    <t xml:space="preserve">「テストデータ」シートのNo2.社員リストの社員氏名が表示される
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「テストデータ」シートのNo2.社員リストの社員氏名が表示される
+    <t>No.4</t>
+  </si>
+  <si>
+    <t>ステータス
+在籍社員リストが表示される</t>
+  </si>
+  <si>
+    <t>「テストデータ」シートのNo4.ステータス”0”の
+在籍社員リストが表示される</t>
+  </si>
+  <si>
+    <t>No.4全量検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①在籍社員リストに”0”の場合”男”が出ます
+②在籍社員リストに”1”の場合”女”出ます
 </t>
-  </si>
-  <si>
-    <t>No.4</t>
-  </si>
-  <si>
-    <t>ステータス
-在籍社員リストが表示される</t>
-  </si>
-  <si>
-    <t>「テストデータ」シートのNo4.ステータス”0”の
-在籍社員リストが表示される</t>
-  </si>
-  <si>
-    <t>No.4全量検索</t>
   </si>
 </sst>
 </file>
@@ -4256,9 +4257,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF41"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+    <sheetView showGridLines="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:O12" activeCellId="0"/>
+      <selection pane="bottomLeft" activeCell="BG13" sqref="BG13:BU13" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="17.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5130,7 +5131,7 @@
       <c r="BE10" s="159"/>
       <c r="BF10" s="160"/>
       <c r="BG10" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BH10" s="179"/>
       <c r="BI10" s="179"/>
@@ -5338,7 +5339,7 @@
       <c r="BE12" s="179"/>
       <c r="BF12" s="180"/>
       <c r="BG12" s="68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BH12" s="179"/>
       <c r="BI12" s="179"/>
@@ -5368,7 +5369,7 @@
       <c r="CE12" s="35"/>
       <c r="CF12" s="36"/>
     </row>
-    <row r="13" customHeight="1" ht="100">
+    <row r="13" customHeight="1" ht="99">
       <c r="A13" s="211">
         <v>5</v>
       </c>
@@ -5441,8 +5442,8 @@
       <c r="BD13" s="159"/>
       <c r="BE13" s="159"/>
       <c r="BF13" s="160"/>
-      <c r="BG13" s="216" t="s">
-        <v>216</v>
+      <c r="BG13" s="144" t="s">
+        <v>228</v>
       </c>
       <c r="BH13" s="217"/>
       <c r="BI13" s="217"/>
@@ -5607,7 +5608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0">
+    <sheetView topLeftCell="A1" workbookViewId="0" tabSelected="1">
       <selection activeCell="G5" sqref="G5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -5747,7 +5748,7 @@
     </row>
     <row r="6">
       <c r="A6" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" customHeight="1" ht="21">
